--- a/template/DB定义模板.xlsx
+++ b/template/DB定义模板.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#修改履历" sheetId="3" r:id="rId1"/>
     <sheet name="说明" sheetId="4" r:id="rId2"/>
-    <sheet name="模板" sheetId="5" r:id="rId3"/>
+    <sheet name="#模板" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -76,7 +77,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-联合索引时请使用英文 , 号分隔。</t>
+此处为索引名、如果重复视为联合索引。
+如某一列有多个索引，请将名称用英文 , 号分隔。</t>
         </r>
       </text>
     </comment>
@@ -102,7 +104,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-联合约束时请使用英文 , 号分隔。</t>
+此处为约束名、如果重复视为联合约束。
+如某一列有多个约束，请将名称用英文 , 号分隔。</t>
         </r>
       </text>
     </comment>
@@ -903,6 +906,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -932,12 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2269,9 +2272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2327,7 +2330,7 @@
         <f t="shared" ref="A3:A21" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -3258,7 +3261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IX13"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -3302,20 +3305,20 @@
       <c r="G2" s="16">
         <v>0.2</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="1:258" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
@@ -3336,16 +3339,16 @@
       <c r="G3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:258" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
@@ -3609,24 +3612,24 @@
     </row>
     <row r="5" spans="1:258" x14ac:dyDescent="0.2">
       <c r="B5" s="24"/>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="25" t="s">
         <v>10</v>
       </c>
@@ -3662,7 +3665,7 @@
       <c r="K6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="40" t="s">
         <v>52</v>
       </c>
       <c r="M6" s="28" t="s">
@@ -3674,7 +3677,7 @@
       <c r="O6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="40" t="s">
         <v>50</v>
       </c>
       <c r="Q6" s="26" t="s">
